--- a/Room_Booking/rooms.xlsx
+++ b/Room_Booking/rooms.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhaarun\Desktop\NexTech\NexTech\Room_Booking\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFCE056-589F-4899-89EE-8F0CE36C47EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="22">
   <si>
     <t>Floor</t>
   </si>
@@ -40,35 +34,59 @@
     <t>Occupied</t>
   </si>
   <si>
+    <t>Available</t>
+  </si>
+  <si>
+    <t>12:12</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>12:59</t>
+  </si>
+  <si>
     <t>08:30:00</t>
   </si>
   <si>
+    <t>23:50</t>
+  </si>
+  <si>
+    <t>08:19</t>
+  </si>
+  <si>
+    <t>08:30</t>
+  </si>
+  <si>
+    <t>04:05</t>
+  </si>
+  <si>
+    <t>09:30</t>
+  </si>
+  <si>
+    <t>12:30</t>
+  </si>
+  <si>
+    <t>23:55</t>
+  </si>
+  <si>
     <t>09:20:00</t>
   </si>
   <si>
-    <t>08:00</t>
+    <t>10:00</t>
   </si>
   <si>
     <t>09:20</t>
-  </si>
-  <si>
-    <t>Available</t>
-  </si>
-  <si>
-    <t>23:50</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>08:30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,7 +97,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,14 +149,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -423,16 +436,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -457,10 +468,16 @@
         <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -468,10 +485,10 @@
         <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -479,10 +496,16 @@
         <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -490,10 +513,10 @@
         <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>1</v>
       </c>
@@ -501,10 +524,10 @@
         <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>1</v>
       </c>
@@ -512,10 +535,16 @@
         <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>1</v>
       </c>
@@ -523,10 +552,10 @@
         <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>1</v>
       </c>
@@ -534,10 +563,10 @@
         <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>1</v>
       </c>
@@ -545,10 +574,10 @@
         <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>1</v>
       </c>
@@ -556,10 +585,10 @@
         <v>110</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>2</v>
       </c>
@@ -567,10 +596,16 @@
         <v>201</v>
       </c>
       <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>2</v>
       </c>
@@ -578,10 +613,10 @@
         <v>202</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>2</v>
       </c>
@@ -592,13 +627,13 @@
         <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>2</v>
       </c>
@@ -609,13 +644,13 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>2</v>
       </c>
@@ -626,13 +661,13 @@
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>2</v>
       </c>
@@ -643,13 +678,13 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>2</v>
       </c>
@@ -660,13 +695,13 @@
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>2</v>
       </c>
@@ -674,10 +709,16 @@
         <v>208</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>2</v>
       </c>
@@ -688,13 +729,13 @@
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>2</v>
       </c>
@@ -702,10 +743,10 @@
         <v>210</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>3</v>
       </c>
@@ -716,13 +757,13 @@
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>3</v>
       </c>
@@ -730,10 +771,10 @@
         <v>302</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>3</v>
       </c>
@@ -744,13 +785,13 @@
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>3</v>
       </c>
@@ -761,13 +802,13 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>3</v>
       </c>
@@ -778,13 +819,13 @@
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>3</v>
       </c>
@@ -795,13 +836,13 @@
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>3</v>
       </c>
@@ -809,10 +850,10 @@
         <v>307</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>3</v>
       </c>
@@ -820,10 +861,10 @@
         <v>308</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>3</v>
       </c>
@@ -834,13 +875,13 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>3</v>
       </c>
@@ -848,10 +889,10 @@
         <v>310</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>4</v>
       </c>
@@ -862,13 +903,13 @@
         <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>4</v>
       </c>
@@ -876,10 +917,10 @@
         <v>402</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>4</v>
       </c>
@@ -890,13 +931,13 @@
         <v>5</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>4</v>
       </c>
@@ -910,10 +951,10 @@
         <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>4</v>
       </c>
@@ -924,13 +965,13 @@
         <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>4</v>
       </c>
@@ -941,13 +982,13 @@
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>4</v>
       </c>
@@ -955,10 +996,10 @@
         <v>407</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>4</v>
       </c>
@@ -966,10 +1007,10 @@
         <v>408</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>4</v>
       </c>
@@ -980,13 +1021,13 @@
         <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1000,10 +1041,10 @@
         <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1014,13 +1055,13 @@
         <v>5</v>
       </c>
       <c r="D42" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43">
         <v>5</v>
       </c>
@@ -1031,13 +1072,13 @@
         <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44">
         <v>5</v>
       </c>
@@ -1048,13 +1089,13 @@
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45">
         <v>5</v>
       </c>
@@ -1065,13 +1106,13 @@
         <v>5</v>
       </c>
       <c r="D45" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46">
         <v>5</v>
       </c>
@@ -1082,13 +1123,13 @@
         <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47">
         <v>5</v>
       </c>
@@ -1099,13 +1140,13 @@
         <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1116,13 +1157,13 @@
         <v>5</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49">
         <v>5</v>
       </c>
@@ -1130,10 +1171,10 @@
         <v>508</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50">
         <v>5</v>
       </c>
@@ -1144,13 +1185,13 @@
         <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>5</v>
       </c>
@@ -1161,13 +1202,13 @@
         <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Room_Booking/rooms.xlsx
+++ b/Room_Booking/rooms.xlsx
@@ -545,11 +545,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+          <t>Occupied</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>09:20</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">

--- a/Room_Booking/rooms.xlsx
+++ b/Room_Booking/rooms.xlsx
@@ -1216,11 +1216,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+          <t>Occupied</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>08:29</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>09:30</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">

--- a/Room_Booking/rooms.xlsx
+++ b/Room_Booking/rooms.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -492,7 +492,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Available</t>
+          <t>Occupied</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -995,11 +995,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+          <t>Occupied</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
